--- a/final_project/Results.xlsx
+++ b/final_project/Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal_projects\sta768_case_study\final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6922357-42B3-4E34-BDA9-3A3510CA71C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EAD8C9-7D4D-42B1-A20F-89C97F81A096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FB35EE67-F8D3-468D-8925-CFFBA6A631CD}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>pct</t>
   </si>
@@ -66,18 +65,6 @@
     <t>Weighted Average</t>
   </si>
   <si>
-    <t>(470.81097394562835, 1417.5287797436033)</t>
-  </si>
-  <si>
-    <t>(488.06861175694456, 1338.6186754254456)</t>
-  </si>
-  <si>
-    <t>(484.3612716791848, 1281.455860656972)</t>
-  </si>
-  <si>
-    <t>(598.5670037624008, 1237.3506413325665)</t>
-  </si>
-  <si>
     <t>Train</t>
   </si>
   <si>
@@ -91,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +111,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -184,6 +191,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69674CBD-6B27-43A1-91F4-5BCC131D8031}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,6 +532,9 @@
     <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
@@ -566,29 +589,29 @@
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="H2" s="6"/>
       <c r="I2" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -828,7 +851,7 @@
         <v>174.82462934285712</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I7" s="6">
         <f>SUMPRODUCT(H3:H6,I3:I6)/SUM(H3:H6)</f>
@@ -847,7 +870,7 @@
         <v>1314.4634285714285</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N7" s="6">
         <f>SUMPRODUCT(H3:H6,N3:N6)/SUM(H3:H6)</f>
@@ -985,9 +1008,15 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="M15" s="14"/>
+      <c r="N15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1019,20 +1048,40 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="N16" s="12">
+        <v>168.61560637354401</v>
+      </c>
+      <c r="O16" s="13">
+        <v>493.89265724094997</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" ht="17.5" x14ac:dyDescent="0.35">
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="N17" s="12">
+        <v>165.097900267585</v>
+      </c>
+      <c r="O17" s="13">
+        <v>432.34862539126101</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" ht="17.5" x14ac:dyDescent="0.35">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1040,67 +1089,73 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="L18" s="1">
+        <v>2</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="N18" s="12">
+        <v>161.962357718741</v>
+      </c>
+      <c r="O18" s="13">
+        <v>82.114822984557904</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" ht="17.5" x14ac:dyDescent="0.35">
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="5:13" ht="42" x14ac:dyDescent="0.35">
+      <c r="L19" s="1">
+        <v>3</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="N19" s="12">
+        <v>158.23172456705501</v>
+      </c>
+      <c r="O19" s="13">
+        <v>81.573017147371701</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" ht="31" x14ac:dyDescent="0.35">
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="5:13" ht="42" x14ac:dyDescent="0.35">
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="13">
+        <f>SUMPRODUCT(M16:M19,N16:N19)/SUM(M16:M19)</f>
+        <v>163.23198874624333</v>
+      </c>
+      <c r="O20" s="13">
+        <f>SUMPRODUCT(M16:M19,O16:O19)/SUM(M16:M19)</f>
+        <v>261.14518981469627</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="5:13" ht="42" x14ac:dyDescent="0.35">
-      <c r="J22" s="1">
-        <v>2</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="5:13" ht="42" x14ac:dyDescent="0.35">
-      <c r="J23" s="1">
-        <v>3</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
   </sheetData>
